--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dergachev_ev\Desktop\Motmos\Motmos\motmos_zd\Справочники\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dergachev_ev\Desktop\Motmos\Motmos\zd_station\motmos_zd\Справочники\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -207,13 +207,13 @@
     <t>Скорость на фронтах при отправки или прибытии с другой станции</t>
   </si>
   <si>
-    <t>Прибытие</t>
-  </si>
-  <si>
     <t>trackNp2</t>
   </si>
   <si>
     <t>n2</t>
+  </si>
+  <si>
+    <t>Прибытие, отправка</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1">
         <v>499.4</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -138,36 +138,6 @@
     <t>length</t>
   </si>
   <si>
-    <t xml:space="preserve">1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 </t>
-  </si>
-  <si>
     <t>track4p3</t>
   </si>
   <si>
@@ -214,6 +184,36 @@
   </si>
   <si>
     <t>Прибытие, отправка</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +754,7 @@
         <v>764.3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10">
         <v>673</v>
@@ -760,13 +763,13 @@
         <v>796</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -777,7 +780,7 @@
         <v>47.8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10">
         <v>673</v>
@@ -786,13 +789,13 @@
         <v>796</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -803,7 +806,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D5" s="10">
         <v>631</v>
@@ -812,13 +815,13 @@
         <v>945</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -829,7 +832,7 @@
         <v>57.6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10">
         <v>631</v>
@@ -838,13 +841,13 @@
         <v>945</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -855,7 +858,7 @@
         <v>705.6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10">
         <v>631</v>
@@ -864,13 +867,13 @@
         <v>945</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -881,7 +884,7 @@
         <v>53.1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10">
         <v>564</v>
@@ -890,13 +893,13 @@
         <v>706</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,7 +910,7 @@
         <v>652.29999999999995</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10">
         <v>564</v>
@@ -916,13 +919,13 @@
         <v>706</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -933,7 +936,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10">
         <v>564</v>
@@ -942,13 +945,13 @@
         <v>701</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -959,7 +962,7 @@
         <v>461.6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10">
         <v>564</v>
@@ -968,24 +971,24 @@
         <v>701</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>98.2</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10">
         <v>564</v>
@@ -994,24 +997,24 @@
         <v>701</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D13" s="10">
         <v>564</v>
@@ -1020,13 +1023,13 @@
         <v>701</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1036,8 +1039,8 @@
       <c r="B14" s="1">
         <v>65</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>41</v>
+      <c r="C14" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="7">
         <v>49</v>
@@ -1046,13 +1049,13 @@
         <v>81</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1072,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1089,7 +1092,7 @@
         <v>244.9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
         <v>110</v>
@@ -1098,13 +1101,13 @@
         <v>228.4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1115,7 +1118,7 @@
         <v>219.8</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10">
         <v>112</v>
@@ -1124,13 +1127,13 @@
         <v>578.20000000000005</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1141,7 +1144,7 @@
         <v>358</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D18" s="10">
         <v>112</v>
@@ -1150,13 +1153,13 @@
         <v>578.20000000000005</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1167,7 +1170,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10">
         <v>217</v>
@@ -1176,13 +1179,13 @@
         <v>643.35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1193,7 +1196,7 @@
         <v>234.4</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D20" s="10">
         <v>217</v>
@@ -1202,13 +1205,13 @@
         <v>643.35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1219,7 +1222,7 @@
         <v>328.8</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D21" s="10">
         <v>217</v>
@@ -1228,13 +1231,13 @@
         <v>643.35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1245,7 +1248,7 @@
         <v>331.8</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D22" s="10">
         <v>158</v>
@@ -1254,13 +1257,13 @@
         <v>482.8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1271,7 +1274,7 @@
         <v>152.69999999999999</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D23" s="10">
         <v>158</v>
@@ -1280,13 +1283,13 @@
         <v>482.8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1297,7 +1300,7 @@
         <v>1476.8</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>1397</v>
@@ -1306,24 +1309,24 @@
         <v>1465</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>499.4</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1332,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1411,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1423,68 +1426,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B1" s="15">
         <v>15</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" s="16">
         <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>track5</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Наименование отрезка в модели</t>
   </si>
   <si>
-    <t>track10p1</t>
-  </si>
-  <si>
-    <t>track10p2</t>
-  </si>
-  <si>
     <t>track6</t>
   </si>
   <si>
@@ -177,12 +171,6 @@
     <t>Скорость на фронтах при отправки или прибытии с другой станции</t>
   </si>
   <si>
-    <t>trackNp2</t>
-  </si>
-  <si>
-    <t>n2</t>
-  </si>
-  <si>
     <t>Прибытие, отправка</t>
   </si>
   <si>
@@ -214,6 +202,12 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>track10</t>
+  </si>
+  <si>
+    <t>9t</t>
   </si>
 </sst>
 </file>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,39 +705,39 @@
         <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -754,7 +748,7 @@
         <v>764.3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="10">
         <v>673</v>
@@ -763,13 +757,13 @@
         <v>796</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -780,7 +774,7 @@
         <v>47.8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10">
         <v>673</v>
@@ -789,13 +783,13 @@
         <v>796</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -806,7 +800,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10">
         <v>631</v>
@@ -815,13 +809,13 @@
         <v>945</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -832,7 +826,7 @@
         <v>57.6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10">
         <v>631</v>
@@ -841,13 +835,13 @@
         <v>945</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -858,7 +852,7 @@
         <v>705.6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="10">
         <v>631</v>
@@ -867,13 +861,13 @@
         <v>945</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -884,7 +878,7 @@
         <v>53.1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10">
         <v>564</v>
@@ -893,13 +887,13 @@
         <v>706</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -910,7 +904,7 @@
         <v>652.29999999999995</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10">
         <v>564</v>
@@ -919,13 +913,13 @@
         <v>706</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -936,7 +930,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10">
         <v>564</v>
@@ -945,13 +939,13 @@
         <v>701</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -962,7 +956,7 @@
         <v>461.6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10">
         <v>564</v>
@@ -971,24 +965,24 @@
         <v>701</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>98.2</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10">
         <v>564</v>
@@ -997,24 +991,24 @@
         <v>701</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10">
         <v>564</v>
@@ -1023,13 +1017,13 @@
         <v>701</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1040,7 +1034,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
         <v>49</v>
@@ -1049,24 +1043,24 @@
         <v>81</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>462.9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
         <v>433</v>
@@ -1075,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1092,7 +1086,7 @@
         <v>244.9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
         <v>110</v>
@@ -1101,13 +1095,13 @@
         <v>228.4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1118,7 +1112,7 @@
         <v>219.8</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10">
         <v>112</v>
@@ -1127,13 +1121,13 @@
         <v>578.20000000000005</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1144,7 +1138,7 @@
         <v>358</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10">
         <v>112</v>
@@ -1153,13 +1147,13 @@
         <v>578.20000000000005</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1170,7 +1164,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" s="10">
         <v>217</v>
@@ -1179,13 +1173,13 @@
         <v>643.35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1196,7 +1190,7 @@
         <v>234.4</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10">
         <v>217</v>
@@ -1205,13 +1199,13 @@
         <v>643.35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1219,10 +1213,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>328.8</v>
+        <v>497.8</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="10">
         <v>217</v>
@@ -1231,76 +1225,76 @@
         <v>643.35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>331.8</v>
+        <v>497.8</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="10">
         <v>158</v>
       </c>
       <c r="E22" s="6">
-        <v>482.8</v>
+        <v>643.35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
-        <v>152.69999999999999</v>
+        <v>499.5</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23" s="10">
-        <v>158</v>
+        <v>400</v>
       </c>
       <c r="E23" s="6">
         <v>482.8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>1476.8</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>1397</v>
@@ -1309,40 +1303,20 @@
         <v>1465</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1">
-        <v>499.4</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L27" s="5"/>
@@ -1397,12 +1371,6 @@
     </row>
     <row r="44" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,68 +1394,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="15">
         <v>15</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="16">
         <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId2"/>
+    <sheet name="Пути" sheetId="4" r:id="rId1"/>
+    <sheet name="Скорости" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="Пути" sheetId="4" r:id="rId1"/>
-    <sheet name="Скорости" sheetId="5" r:id="rId2"/>
+    <sheet name="Original" sheetId="6" r:id="rId2"/>
+    <sheet name="Скорости" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="61">
   <si>
     <t>track5</t>
   </si>
@@ -674,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,7 +934,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="10">
-        <v>564</v>
+        <v>400</v>
       </c>
       <c r="E10" s="6">
         <v>701</v>
@@ -959,7 +960,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="10">
-        <v>564</v>
+        <v>400</v>
       </c>
       <c r="E11" s="6">
         <v>701</v>
@@ -985,7 +986,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="10">
-        <v>564</v>
+        <v>400</v>
       </c>
       <c r="E12" s="6">
         <v>701</v>
@@ -1011,7 +1012,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="10">
-        <v>564</v>
+        <v>400</v>
       </c>
       <c r="E13" s="6">
         <v>701</v>
@@ -1380,9 +1381,648 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>764.3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="10">
+        <v>673</v>
+      </c>
+      <c r="E3" s="6">
+        <v>796</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10">
+        <v>673</v>
+      </c>
+      <c r="E4" s="6">
+        <v>796</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>133</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10">
+        <v>631</v>
+      </c>
+      <c r="E5" s="6">
+        <v>945</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10">
+        <v>631</v>
+      </c>
+      <c r="E6" s="6">
+        <v>945</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>705.6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10">
+        <v>631</v>
+      </c>
+      <c r="E7" s="6">
+        <v>945</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10">
+        <v>564</v>
+      </c>
+      <c r="E8" s="6">
+        <v>706</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>652.29999999999995</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10">
+        <v>564</v>
+      </c>
+      <c r="E9" s="6">
+        <v>706</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>93</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10">
+        <v>564</v>
+      </c>
+      <c r="E10" s="6">
+        <v>701</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>461.6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10">
+        <v>564</v>
+      </c>
+      <c r="E11" s="6">
+        <v>701</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10">
+        <v>564</v>
+      </c>
+      <c r="E12" s="6">
+        <v>701</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
+        <v>48</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10">
+        <v>564</v>
+      </c>
+      <c r="E13" s="6">
+        <v>701</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>65</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>462.9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7">
+        <v>433</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>244.9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7">
+        <v>110</v>
+      </c>
+      <c r="E16" s="8">
+        <v>228.4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>219.8</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="10">
+        <v>112</v>
+      </c>
+      <c r="E17" s="6">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>358</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="10">
+        <v>112</v>
+      </c>
+      <c r="E18" s="6">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>85</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="10">
+        <v>217</v>
+      </c>
+      <c r="E19" s="6">
+        <v>643.35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>234.4</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10">
+        <v>217</v>
+      </c>
+      <c r="E20" s="6">
+        <v>643.35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>497.8</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="10">
+        <v>217</v>
+      </c>
+      <c r="E21" s="6">
+        <v>643.35</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>497.8</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10">
+        <v>158</v>
+      </c>
+      <c r="E22" s="6">
+        <v>643.35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1">
+        <v>499.5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="10">
+        <v>400</v>
+      </c>
+      <c r="E23" s="6">
+        <v>482.8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1476.8</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1397</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1465</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="62">
   <si>
     <t>track5</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>9t</t>
+  </si>
+  <si>
+    <t>track4a</t>
   </si>
 </sst>
 </file>
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1058,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>462.9</v>
@@ -1090,7 +1093,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8">
         <v>228.4</v>
@@ -1116,7 +1119,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="10">
-        <v>112</v>
+        <v>151.5</v>
       </c>
       <c r="E17" s="6">
         <v>578.20000000000005</v>
@@ -1142,7 +1145,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="10">
-        <v>112</v>
+        <v>151.5</v>
       </c>
       <c r="E18" s="6">
         <v>578.20000000000005</v>
@@ -1168,7 +1171,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="10">
-        <v>217</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="E19" s="6">
         <v>643.35</v>
@@ -1194,7 +1197,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="10">
-        <v>217</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="E20" s="6">
         <v>643.35</v>
@@ -1220,7 +1223,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="10">
-        <v>217</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="E21" s="6">
         <v>643.35</v>
@@ -1246,7 +1249,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="10">
-        <v>158</v>
+        <v>151.86000000000001</v>
       </c>
       <c r="E22" s="6">
         <v>643.35</v>
@@ -1272,7 +1275,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="10">
-        <v>400</v>
+        <v>228.4</v>
       </c>
       <c r="E23" s="6">
         <v>482.8</v>

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="63">
   <si>
     <t>track5</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>track4a</t>
+  </si>
+  <si>
+    <t>4a</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1067,7 @@
         <v>462.9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7">
         <v>433</v>

--- a/motmos_zd/Справочники/Пути.xlsx
+++ b/motmos_zd/Справочники/Пути.xlsx
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1070,7 @@
         <v>62</v>
       </c>
       <c r="D15" s="7">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
